--- a/sessions/data/Part_I/Congressional_Bills/dinamic/Congressional_Bills_n_4.xlsx
+++ b/sessions/data/Part_I/Congressional_Bills/dinamic/Congressional_Bills_n_4.xlsx
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06541/2023-CR</t>
+          <t>Proyecto de Ley 06557/2023-CR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fecha de Presentación28/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 26889, LEY MARCO PARA LA PRODUCCIÓN Y SISTEMATIZACIÓN LEGISLATIVA</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY N° 30037, LEY QUE PREVIENE Y SANCIONA LA VIOLENCIA EN LOS ESPECTÁCULOS DEPORTIVOS, PARA FORTALECER LA PROTECCIÓN AL PÚBLICO ASISTENTE, ESTABLECIENDO CUALQUIER ACTO DE PROVOCACIÓN O INCITACIÓN A LA VIOLENCIA COMO FALTA GRAVE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,29 +493,29 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AutoresSoto Reyes, Alejandro Ruíz Rodríguez, Magaly Rosmery García Correa, Idelso Manuel ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06540/2023-CR</t>
+          <t>Proyecto de Ley 06556/2023-CR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fecha de Presentación28/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY N° 31803, LEY QUE MODIFICA LA LEY 30220, LEY UNIVERSITARIA, A FIN DE PROMOVER LA INVESTIGACIÓN PARA LA OBTENCIÓN DEL GRADO ACADÉMICO DE BACHILLER O DEL TÍTULO PROFESIONAL E IMPULSAR LA INSERCIÓN DE LOS GRADUANDOS DE LAS UNIVERSIDADES PÚBLICAS Y UNIVERSIDADES PRIVADAS EN EL MERCADO LABORAL</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 30754, LEY MARCO SOBRE CAMBIO CLIMÁTICO, PARA FORTALECER LA GESTIÓN DE LOS INCENDIOS FORESTALES, ESTABLECIENDO QUE EL MINISTERIO DEL AMBIENTE, EN COORDINACIÓN CON EL MINISTERIO DE DEFENSA, EL MINISTERIO DE DESARROLLO AGRARIO Y RIEGO, LOS GOBIERNOS REGIONALES Y GOBIERNOS LOCALES, GESTIONA LOS INCENDIOS FORESTALES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Estado ProcesalAPROBADO</t>
+          <t>Estado ProcesalEN COMISIÓN</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,24 +525,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AutoresElías Ávalos, José Luis Calle Lobatón, Digna Paredes Castro, Francis Jhasmina ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06539/2023-CR</t>
+          <t>Proyecto de Ley 06555/2023-CR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fecha de Presentación28/11/2023</t>
+          <t>Fecha de Presentación30/11/2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FORTALECE LA ADMINISTRACIÓN DE JUSTICIA EN MATERIA AMBIENTAL EN EL TERRITORIO NACIONAL</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CREACIÓN DEL INSTITUTO SUPERIOR TECNOLÓGICO PÚBLICO LIVITACA, EN EL DISTRITO DE LIVITACA, PROVINCIA DE CHUMBIVILCAS DEL DEPARTAMENTO DE CUSCO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -557,24 +557,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AutoresLuque Ibarra, Ruth Bazán Narro, Sigrid Tesoro Cortez Aguirre, Isabel ver más...</t>
+          <t>AutoresBellido Ugarte, Guido Balcázar Zelada, José María Coayla Juárez, Jorge Samuel ver más...</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06538/2023-CR</t>
+          <t>Proyecto de Ley 06554/2023-CR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fecha de Presentación28/11/2023</t>
+          <t>Fecha de Presentación30/11/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE AUTORIZA A LAS UNIVERSIDADES PÚBLICAS EL NOMBRAMIENTO DE DOCENTES CONTRATADOS DE EDUCACIÓN SUPERIOR UNIVERSITARIA</t>
+          <t>TítuloLEY QUE ESTABLECE LA CUOTA MÍNIMA OBLIGATORIA DE MUJERES EN EL REGIMEN DE CONSTRUCCIÓN CIVIL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,56 +589,56 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AutoresAragón Carreño, Luis Ángel Flores Ancachi, Jorge Luis Doroteo Carbajo, Raúl Felipe ver más...</t>
+          <t>AutoresQuiroz Barboza, Segundo Teodomiro Tacuri Valdivia, Germán Adolfo Medina Hermosilla, Elizabeth Sara ver más...</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06537/2023-CR</t>
+          <t>Proyecto de Ley 06553/2023-PE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fecha de Presentación28/11/2023</t>
+          <t>Fecha de Presentación30/11/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERES NACIONAL LA DECLARATORIA COMO PATRIMONIO CULTURAL E INMATERIAL DE LA NACION LA FIESTA COSTUMBRISTA DEL ZAPATEO DE AÑO NUEVO DEL NIÑO JESÚS DE PRAGA COCHASINO</t>
+          <t>TítuloRESOLUCIÓN LEGISLATIVA QUE AUTORIZA EL INGRESO DE PERSONAL MILITAR EXTRANJERO CON ARMAS DE GUERRA AL TERRITORIO DE LA REPÚBLICA DEL PERÚ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPublicada en el Diario Oficial El Peruano</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ProponenteCongreso</t>
+          <t>ProponentePoder Ejecutivo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AutoresReymundo Mercado, Edgard Cornelio Bazán Narro, Sigrid Tesoro Cortez Aguirre, Isabel ver más...</t>
+          <t>Autores</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06536/2023-CR</t>
+          <t>Proyecto de Ley 06552/2023-CR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fecha de Presentación28/11/2023</t>
+          <t>Fecha de Presentación30/11/2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA EL ARTICULO 88° Y 89° DE LA CONSTITUCION POLITICA DEL PERU SOBRE EL REGIMEN AGRARIO DE LAS COMUNIDADES CAMPESINAS Y NATIVAS</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY N° 30299, LEY DE ARMAS DE FUEGO, MUNICIONES, EXPLOSIVOS, PRODUCTOS PIROTÉCNICOS Y MATERIALES RELACIONADOS DE USO CIVIL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -653,24 +653,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AutoresValer Pinto, Héctor Saavedra Casternoque, Hitler Azurín Loayza, Alfredo ver más...</t>
+          <t>AutoresCamones Soriano, Lady Mercedes Salhuana Cavides, Eduardo Trigozo Reátegui, Cheryl ver más...</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06535/2023-CR</t>
+          <t>Proyecto de Ley 06551/2023-CR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fecha de Presentación28/11/2023</t>
+          <t>Fecha de Presentación30/11/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE EL RETIRO DEL FONDO DE PENSIONES EN CASOS DE ENFERMEDAD TERMINAL O CÁNCER Y DE FALTA DE COBERTURA DEL SEGURO DE INVALIDEZ Y SOBREVIVENCIA</t>
+          <t>TítuloLEY QUE INCORPORA UNA DISPOSICIÓN COMPLEMENTARIA FINAL EN LA LEY N° 31539, LEY QUE AUTORIZA, EXCEPCIONALMENTE Y POR ÚNICA VEZ, EN EL MARCO DE LA EMERGENCIA SANITARIA, EL CAMBIO DE CONTRATO CAS-COVID A CONTRATO CAS AL PERSONAL ASISTENCIAL EN EL SECTOR SALUD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -685,24 +685,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AutoresTacuri Valdivia, Germán Adolfo Medina Hermosilla, Elizabeth Sara Gutiérrez Ticona, Paul Silvio ver más...</t>
+          <t>AutoresParedes Castro, Francis Jhasmina Elías Ávalos, José Luis Wong Pujada, Enrique ver más...</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06534/2023-CR</t>
+          <t>Proyecto de Ley 06550/2023-CR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fecha de Presentación28/11/2023</t>
+          <t>Fecha de Presentación29/11/2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ENCARGA A LA CORPORACIÓN FINANCIERA DE DESARROLLO SOCIEDAD ANÓNIMA - COFIDE LA CONSTITUCIÓN DE UN BANCO DE CARBONO</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL LA INVESTIGACIÓN, CONSERVACIÓN, PUESTA EN VALOR Y PROMOCIÓN DE LOS SITIOS ARQUEOLÓGICOS DE ALTO DE LA GUITARRA, HUACA DE LOS REYES Y LOS GEOGLIFOS DE LA QUEBRADA DE SANTO DOMINGO, UBICADOS EN EL DISTRITO DE LAREDO, PROVINCIA DE TRUJILLO, DEPARTAMENTO DE LA LIBERTAD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -717,24 +717,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AutoresMedina Hermosilla, Elizabeth Sara Quiroz Barboza, Segundo Teodomiro Gutiérrez Ticona, Paul Silvio ver más...</t>
+          <t>AutoresBazán Calderón, Diego Alonso Fernando Gonzales Delgado, Diana Carolina Yarrow Lumbreras, Norma Martina ver más...</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06533/2023-CR</t>
+          <t>Proyecto de Ley 06549/2023-CR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fecha de Presentación28/11/2023</t>
+          <t>Fecha de Presentación29/11/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE AUTORIZA NUEVA ESCALA REMUNERATIVA PARA PERSONAL DE EMPLEADOS CIVILES PROFESIONALES DE NIVEL REMUNERATIVO DE FUNCIONARIOS DE LA FUERZA AÉREA DEL PERÚ SUJETOS AL RÉGIMEN LABORAL DEL DECRETO LEGISLATIVO N° 276</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CREACIÓN DE LA UNIDAD DE FLAGRANCIA EN EL DEPARTAMENTO DE CAJAMARCA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -749,24 +749,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AutoresMedina Hermosilla, Elizabeth Sara Quiroz Barboza, Segundo Teodomiro Gutiérrez Ticona, Paul Silvio ver más...</t>
+          <t>AutoresJulón Irigoín, Elva Edhit Ruíz Rodríguez, Magaly Rosmery Salhuana Cavides, Eduardo ver más...</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06532/2023-CR</t>
+          <t>Proyecto de Ley 06548/2023-CR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fecha de Presentación28/11/2023</t>
+          <t>Fecha de Presentación29/11/2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TítuloRESOLUCIÓN LEGISLATIVA QUE REGULA EL PERIODO DE VIAJE DE LOS CONGRESISTAS AL EXTRANJERO</t>
+          <t>TítuloLEY QUE CREA EL FONDO DE ESTABILIZACIÓN DEL CANON MINERO Y ESTABLECE MEDIDAS PARA GARANTIZAR SU ASIGNACIÓN Y REDISTRIBUCIÓN EN FAVOR DE LOS GOBIERNOS LOCALES Y REGIONALES</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -781,24 +781,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AutoresTudela Gutiérrez, Adriana Josefina Gonzales Delgado, Diana Carolina Córdova Lobatón, María Jessica ver más...</t>
+          <t>AutoresJulón Irigoín, Elva Edhit Trigozo Reátegui, Cheryl Acuña Peralta, María Grimaneza ver más...</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06531/2023-CR</t>
+          <t>Proyecto de Ley 06547/2023-CR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fecha de Presentación27/11/2023</t>
+          <t>Fecha de Presentación29/11/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TítuloLEY DE TUTELA PERMANENTE DE LOS DERECHOS DEL PERSONAL POLICIAL A FAVOR DE LA SEGURIDAD CIUDADANA</t>
+          <t>TítuloLEY QUE MODIFICA EL DECRETO LEGISLATIVO 1132 QUE APRUEBA LA NUEVA ESTRUCTURA DE INGRESOS APLICABLE AL PERSONAL MILITAR DE LAS FUERZAS ARMADAS Y POLICIAL DE LA POLICÍA NACIONAL DEL PERÚ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -813,24 +813,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AutoresMedina Minaya, Esdras Ricardo Burgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy ver más...</t>
+          <t>AutoresCortez Aguirre, Isabel Paredes Piqué, Susel Ana María Echeverría Rodríguez, Hamlet ver más...</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06530/2023-CR</t>
+          <t>Proyecto de Ley 06546/2023-PJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fecha de Presentación27/11/2023</t>
+          <t>Fecha de Presentación29/11/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROMUEVE EL CONCURSO DE BANDAS ESCOLARES EN LAS INSTITUCIONES EDUCATIVAS PUBLICAS Y PRIVADAS A NIVEL NACIONAL</t>
+          <t>TítuloLEY QUE MODIFICA LOS ARTÍCULOS 1 Y 2 DE LA LEY 29497, NUEVA LEY PROCESAL DEL TRABAJO, Y LOS ARTÍCULOS 51 Y 57 DEL TEXTO ÚNICO ORDENADO DE LA LEY ORGÁNICA DEL PODER JUDICIAL, APROBADO POR EL DECRETO SUPREMO N.° 017-93-JUS, EN CUANTO A LA COMPETENCIA POR MATERIA DE LOS JUZGADOS DE PAZ LETRADO LABORALES Y DE LOS JUZGADOS ESPECIALIZADOS DE TRABAJO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -840,29 +840,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ProponenteCongreso</t>
+          <t>ProponentePoder Judicial</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AutoresMedina Minaya, Esdras Ricardo Burgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy ver más...</t>
+          <t>Autores</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06529/2023-CR</t>
+          <t>Proyecto de Ley 06545/2023-CR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fecha de Presentación27/11/2023</t>
+          <t>Fecha de Presentación29/11/2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TítuloLEY DE ABSORCIÓN DEL PROGRAMA NACIONAL DE INVERSIONES EN SALUD (PRONIS) POR LA AUTORIDAD NACIONAL DE INFRAESTRUCTURA (ANIN)</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL EL SANEAMIENTO FÍSICO LEGAL DE LA ZONA DENOMINADA CANTAGALLO A FAVOR DE LOS POSESIONARIOS - COMUNIDAD SHIPIBO KONIBO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -877,24 +877,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AutoresVergara Mendoza, Elvis Hernán Espinoza Vargas, Jhaec Darwin Flores Ancachi, Jorge Luis ver más...</t>
+          <t>AutoresCortez Aguirre, Isabel Bazán Narro, Sigrid Tesoro Sánchez Palomino, Roberto Helbert ver más...</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06528/2023-CR</t>
+          <t>Proyecto de Ley 06544/2023-CR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fecha de Presentación27/11/2023</t>
+          <t>Fecha de Presentación28/11/2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY NACIONAL DE CÁNCER, A FIN DE FORTALECER E INCENTIVAR LA PREVENCIÓN Y DETECCIÓN TEMPRANA DEL CÁNCER</t>
+          <t>TítuloLEY QUE PERMITE EL RETIRO EXTRAORDINARIO Y FACULTATIVO DE HASTA CINCO (5) UIT DEL SISTEMA PRIVADO DE ADMINISTRACIÓN DE FONDOS DE PENSIONES — AFP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -909,24 +909,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AutoresReymundo Mercado, Edgard Cornelio Limachi Quispe, Nieves Esmeralda Bazán Narro, Sigrid Tesoro ver más...</t>
+          <t>AutoresQuiroz Barboza, Segundo Teodomiro Gutiérrez Ticona, Paul Silvio Tacuri Valdivia, Germán Adolfo ver más...</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06527/2023-CR</t>
+          <t>Proyecto de Ley 06543/2023-CR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fecha de Presentación27/11/2023</t>
+          <t>Fecha de Presentación28/11/2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA Y DE PREFERENTE INTERES NACIONAL LA EJECUCIÓN DEL PROYECTO DE AMPLIACIÓN Y MEJORAMIENTO, DE LOS SISTEMAS DE AGUA POTABLE Y ALCANTARILLADO Y CONSTRUCCIÓN DE LA PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LA CIUDAD DE BAGUA GRANDE, DISTRITO DE BAGUA GRANDE, PROVINCIA DE UTCUBAMBA, REGION AMAZONAS</t>
+          <t>TítuloLEY QUE MODIFICA EL TEXTO ÚNICO ORDENADO DE LA LEY 30225, LEY DE CONTRATACIONES DEL ESTADO, SOBRE EL IMPEDIMENTO DE LAS PERSONAS JURIDICAS Y PERSONAS NATURALES</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -941,24 +941,24 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AutoresMontalvo Cubas, Segundo Toribio Portalatino Ávalos, Kelly Roxana Taipe Coronado, María Elizabeth ver más...</t>
+          <t>AutoresPortero López, Hilda Marleny Espinoza Vargas, Jhaec Darwin Aragón Carreño, Luis Ángel ver más...</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06526/2023-CR</t>
+          <t>Proyecto de Ley 06542/2023-CR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fecha de Presentación27/11/2023</t>
+          <t>Fecha de Presentación28/11/2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 193° DE LA LEY N°26859, LEY ORGÁNICA DE ELECCIONES, RESPECTO AL RETIRO DE PROPAGANDA ELECTORAL</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 149 DEL DECRETO LEGISLATIVO 768, CÓDIGO PROCESAL CIVIL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -973,24 +973,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AutoresElías Ávalos, José Luis Calle Lobatón, Digna Picón Quedo, Luis Raúl ver más...</t>
+          <t>AutoresSoto Reyes, Alejandro Camones Soriano, Lady Mercedes Ruíz Rodríguez, Magaly Rosmery ver más...</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06525/2023-CR</t>
+          <t>Proyecto de Ley 06541/2023-CR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fecha de Presentación27/11/2023</t>
+          <t>Fecha de Presentación28/11/2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FORTALECE Y AMPLIA LA COBERTURA DE ESSALUD DENTRO DE LOS ALCANCES DEL DERECHO A LA SEGURIDAD SOCIAL</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 26889, LEY MARCO PARA LA PRODUCCIÓN Y SISTEMATIZACIÓN LEGISLATIVA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1005,29 +1005,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AutoresMedina Minaya, Esdras Ricardo Burgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy ver más...</t>
+          <t>AutoresSoto Reyes, Alejandro Ruíz Rodríguez, Magaly Rosmery García Correa, Idelso Manuel ver más...</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06524/2023-CR</t>
+          <t>Proyecto de Ley 06540/2023-CR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fecha de Presentación27/11/2023</t>
+          <t>Fecha de Presentación28/11/2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PRECISA LA FORMALIZACION DIGITAL EN SISTEMAS Y APLICACIONES QUE SE UTILICEN INTELIGENCIA ARTIFICIAL</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY N° 31803, LEY QUE MODIFICA LA LEY 30220, LEY UNIVERSITARIA, A FIN DE PROMOVER LA INVESTIGACIÓN PARA LA OBTENCIÓN DEL GRADO ACADÉMICO DE BACHILLER O DEL TÍTULO PROFESIONAL E IMPULSAR LA INSERCIÓN DE LOS GRADUANDOS DE LAS UNIVERSIDADES PÚBLICAS Y UNIVERSIDADES PRIVADAS EN EL MERCADO LABORAL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalAPROBADO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AutoresMedina Minaya, Esdras Ricardo Ugarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé ver más...</t>
+          <t>AutoresElías Ávalos, José Luis Calle Lobatón, Digna Paredes Castro, Francis Jhasmina ver más...</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06523/2023-CR</t>
+          <t>Proyecto de Ley 06539/2023-CR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fecha de Presentación24/11/2023</t>
+          <t>Fecha de Presentación28/11/2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL RECONOCER A LA CIUDAD DE ETEN COMO CIUDAD EUCARÍSTICA</t>
+          <t>TítuloLEY QUE FORTALECE LA ADMINISTRACIÓN DE JUSTICIA EN MATERIA AMBIENTAL EN EL TERRITORIO NACIONAL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1069,24 +1069,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AutoresAnderson Ramírez, Carlos Antonio Portero López, Hilda Marleny Acuña Peralta, María Grimaneza ver más...</t>
+          <t>AutoresLuque Ibarra, Ruth Bazán Narro, Sigrid Tesoro Cortez Aguirre, Isabel ver más...</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06522/2023-CR</t>
+          <t>Proyecto de Ley 06538/2023-CR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fecha de Presentación24/11/2023</t>
+          <t>Fecha de Presentación28/11/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TítuloLEY DE RESTABLECIMIENTO, ACTUALIZACION Y NIVELACIÓN DE LA BONIFICACION MENSUAL DE LOS EX COMBATIENTES, SOBRE LA BASE DE LA REMUNERACIÓN MÍNIMA VITAL VIGENTE EN CADA EJERCICIO FISCAL, EN EL MARCO DE LA LEY 24053 Y SU MODIFICATORIA Y LA LEY 26511 Y SUS MODIFICATORIAS</t>
+          <t>TítuloLEY QUE AUTORIZA A LAS UNIVERSIDADES PÚBLICAS EL NOMBRAMIENTO DE DOCENTES CONTRATADOS DE EDUCACIÓN SUPERIOR UNIVERSITARIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1101,24 +1101,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AutoresMontalvo Cubas, Segundo Toribio Portalatino Ávalos, Kelly Roxana Taipe Coronado, María Elizabeth ver más...</t>
+          <t>AutoresAragón Carreño, Luis Ángel Flores Ancachi, Jorge Luis Doroteo Carbajo, Raúl Felipe ver más...</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06521/2023-CR</t>
+          <t>Proyecto de Ley 06537/2023-CR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fecha de Presentación24/11/2023</t>
+          <t>Fecha de Presentación28/11/2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TítuloPROYECTO DE LEY QUE DICTA MEDIDAS CONTRA LA CORRUPCIÓN EN LOS ESTABLECIMIENTOS PENITENCIARIOS Y PROMUEVE ACCIONES PARA REDUCIR EL HACINAMIENTO</t>
+          <t>TítuloLEY QUE DECLARA DE INTERES NACIONAL LA DECLARATORIA COMO PATRIMONIO CULTURAL E INMATERIAL DE LA NACION LA FIESTA COSTUMBRISTA DEL ZAPATEO DE AÑO NUEVO DEL NIÑO JESÚS DE PRAGA COCHASINO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1133,24 +1133,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AutoresYarrow Lumbreras, Norma Martina Cavero Alva, Alejandro Enrique Córdova Lobatón, María Jessica ver más...</t>
+          <t>AutoresReymundo Mercado, Edgard Cornelio Bazán Narro, Sigrid Tesoro Cortez Aguirre, Isabel ver más...</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06520/2023-CR</t>
+          <t>Proyecto de Ley 06536/2023-CR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fecha de Presentación24/11/2023</t>
+          <t>Fecha de Presentación28/11/2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE REGULA Y GARANTIZA EL SERVICIO DE RECOJO DE RESIDUOS GENERADOS EN LA ACTIVIDAD MARITIMA Y PROTEJE EL MEDIO AMBIENTE MARITIMO</t>
+          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA EL ARTICULO 88° Y 89° DE LA CONSTITUCION POLITICA DEL PERU SOBRE EL REGIMEN AGRARIO DE LAS COMUNIDADES CAMPESINAS Y NATIVAS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1165,24 +1165,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AutoresFlores Ancachi, Jorge Luis Vergara Mendoza, Elvis Hernán Aragón Carreño, Luis Ángel ver más...</t>
+          <t>AutoresValer Pinto, Héctor Saavedra Casternoque, Hitler Azurín Loayza, Alfredo ver más...</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06519/2023-CR</t>
+          <t>Proyecto de Ley 06535/2023-CR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fecha de Presentación24/11/2023</t>
+          <t>Fecha de Presentación28/11/2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CREACIÓN DE LA UNIVERSIDAD NACIONAL DE JAUJA EN EL DEPARTAMENTO DE JUNÍN</t>
+          <t>TítuloLEY QUE ESTABLECE EL RETIRO DEL FONDO DE PENSIONES EN CASOS DE ENFERMEDAD TERMINAL O CÁNCER Y DE FALTA DE COBERTURA DEL SEGURO DE INVALIDEZ Y SOBREVIVENCIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1197,24 +1197,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AutoresFlores Ancachi, Jorge Luis Aragón Carreño, Luis Ángel Soto Palacios, Wilson ver más...</t>
+          <t>AutoresTacuri Valdivia, Germán Adolfo Medina Hermosilla, Elizabeth Sara Gutiérrez Ticona, Paul Silvio ver más...</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06518/2023-CR</t>
+          <t>Proyecto de Ley 06534/2023-CR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fecha de Presentación24/11/2023</t>
+          <t>Fecha de Presentación28/11/2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 27867, LEY ORGÁNICA DE GOBIERNOS REGIONALES CREANDO LA GERENCIA DE DESARROLLO DE LOS PUEBLOS INDÍGENAS U ORIGINARIOS</t>
+          <t>TítuloLEY QUE ENCARGA A LA CORPORACIÓN FINANCIERA DE DESARROLLO SOCIEDAD ANÓNIMA - COFIDE LA CONSTITUCIÓN DE UN BANCO DE CARBONO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1229,24 +1229,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AutoresTaipe Coronado, María Elizabeth Quispe Mamani, Wilson Rusbel Palacios Huamán, Margot ver más...</t>
+          <t>AutoresMedina Hermosilla, Elizabeth Sara Quiroz Barboza, Segundo Teodomiro Gutiérrez Ticona, Paul Silvio ver más...</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06517/2023-CR</t>
+          <t>Proyecto de Ley 06533/2023-CR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación28/11/2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TítuloLEY DE EFICIENCIA EN LA DESTRUCCIÓN DE DROGAS DECOMISADAS</t>
+          <t>TítuloLEY QUE AUTORIZA NUEVA ESCALA REMUNERATIVA PARA PERSONAL DE EMPLEADOS CIVILES PROFESIONALES DE NIVEL REMUNERATIVO DE FUNCIONARIOS DE LA FUERZA AÉREA DEL PERÚ SUJETOS AL RÉGIMEN LABORAL DEL DECRETO LEGISLATIVO N° 276</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1261,24 +1261,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AutoresVergara Mendoza, Elvis Hernán Espinoza Vargas, Jhaec Darwin Portero López, Hilda Marleny ver más...</t>
+          <t>AutoresMedina Hermosilla, Elizabeth Sara Quiroz Barboza, Segundo Teodomiro Gutiérrez Ticona, Paul Silvio ver más...</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06516/2023-CR</t>
+          <t>Proyecto de Ley 06532/2023-CR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación28/11/2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CREACIÓN DE LA "UNIVERSIDAD NACIONAL TÉCNICA DE CARABAYLLO" EN EL DEPARTAMENTO DE LIMA</t>
+          <t>TítuloRESOLUCIÓN LEGISLATIVA QUE REGULA EL PERIODO DE VIAJE DE LOS CONGRESISTAS AL EXTRANJERO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1293,24 +1293,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AutoresFlores Ancachi, Jorge Luis Vergara Mendoza, Elvis Hernán Aragón Carreño, Luis Ángel ver más...</t>
+          <t>AutoresTudela Gutiérrez, Adriana Josefina Gonzales Delgado, Diana Carolina Córdova Lobatón, María Jessica ver más...</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06515/2023-CR</t>
+          <t>Proyecto de Ley 06531/2023-CR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación27/11/2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TítuloLEY PARA EL RECONOCIMIENTO, REVALORIZACIÓN, PROMOCIÓN Y PROTECCIÓN DEL GRAN PAJATÉN POR LA NACIÓN</t>
+          <t>TítuloLEY DE TUTELA PERMANENTE DE LOS DERECHOS DEL PERSONAL POLICIAL A FAVOR DE LA SEGURIDAD CIUDADANA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1325,24 +1325,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AutoresFlores Ancachi, Jorge Luis Vergara Mendoza, Elvis Hernán Doroteo Carbajo, Raúl Felipe ver más...</t>
+          <t>AutoresMedina Minaya, Esdras Ricardo Burgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy ver más...</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06514/2023-CR</t>
+          <t>Proyecto de Ley 06530/2023-CR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación27/11/2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 30220, LEY UNIVERSITARIA PARA ESTABLECER EL DESARROLLO OBLIGATORIO DE LA INVESTIGACIÓN ARTÍSTICA, CIENTÍFICA Y TECNOLÓGICA DURANTE LOS ESTUDIOS DE PREGRADO Y POSGRADO</t>
+          <t>TítuloLEY QUE PROMUEVE EL CONCURSO DE BANDAS ESCOLARES EN LAS INSTITUCIONES EDUCATIVAS PUBLICAS Y PRIVADAS A NIVEL NACIONAL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1357,29 +1357,29 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AutoresBazán Narro, Sigrid Tesoro Limachi Quispe, Nieves Esmeralda Kamiche Morante, Luis Roberto ver más...</t>
+          <t>AutoresMedina Minaya, Esdras Ricardo Burgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy ver más...</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06513/2023-CR</t>
+          <t>Proyecto de Ley 06529/2023-CR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación27/11/2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROMUEVE EL EFECTIVO DESARROLLO PRODUCTIVO, CRECIMIENTO Y FORMALIZACIÓN DE LA ACTIVIDAD ARTESANAL</t>
+          <t>TítuloLEY DE ABSORCIÓN DEL PROGRAMA NACIONAL DE INVERSIONES EN SALUD (PRONIS) POR LA AUTORIDAD NACIONAL DE INFRAESTRUCTURA (ANIN)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Estado ProcesalRetirado por su Autor</t>
+          <t>Estado ProcesalEN COMISIÓN</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1389,24 +1389,24 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AutoresMorante Figari, Jorge Alberto Aguinaga Recuenco, Alejandro Aurelio Infantes Castañeda, Mery Eliana ver más...</t>
+          <t>AutoresVergara Mendoza, Elvis Hernán Espinoza Vargas, Jhaec Darwin Flores Ancachi, Jorge Luis ver más...</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06512/2023-CR</t>
+          <t>Proyecto de Ley 06528/2023-CR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación27/11/2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA LOS ARTÍCULOS 165 Y 166 DE LA CONSTITUCIÓN POLÍTICA DEL PERÚ Y AGREGA PRECISIONES RESPECTO AL SISTEMA DE VIGILANCIA DE FRONTERAS</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY NACIONAL DE CÁNCER, A FIN DE FORTALECER E INCENTIVAR LA PREVENCIÓN Y DETECCIÓN TEMPRANA DEL CÁNCER</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1421,24 +1421,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AutoresChiabra León, Roberto Enrique Acuña Peralta, María Grimaneza Salhuana Cavides, Eduardo ver más...</t>
+          <t>AutoresReymundo Mercado, Edgard Cornelio Limachi Quispe, Nieves Esmeralda Bazán Narro, Sigrid Tesoro ver más...</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06511/2023-PE</t>
+          <t>Proyecto de Ley 06527/2023-CR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación27/11/2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY N° 29944, LEY DE REFORMA MAGISTERIAL, PARA GARANTIZAR LA NEUTRALIDAD EN EL DESEMPEÑO DE LA FUNCIÓN PÚBLICA DOCENTE</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA Y DE PREFERENTE INTERES NACIONAL LA EJECUCIÓN DEL PROYECTO DE AMPLIACIÓN Y MEJORAMIENTO, DE LOS SISTEMAS DE AGUA POTABLE Y ALCANTARILLADO Y CONSTRUCCIÓN DE LA PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LA CIUDAD DE BAGUA GRANDE, DISTRITO DE BAGUA GRANDE, PROVINCIA DE UTCUBAMBA, REGION AMAZONAS</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1448,29 +1448,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ProponentePoder Ejecutivo</t>
+          <t>ProponenteCongreso</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Autores</t>
+          <t>AutoresMontalvo Cubas, Segundo Toribio Portalatino Ávalos, Kelly Roxana Taipe Coronado, María Elizabeth ver más...</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06510/2023-CR</t>
+          <t>Proyecto de Ley 06526/2023-CR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación27/11/2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TítuloLEY PARA LA PROMOCIÓN DE LA FORESTACIÓN URBANA Y CUIDADO AMBIENTAL EN ASENTAMIENTOS HUMANOS CON INCENTIVOS EN AUTOAVALÚOS</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 193° DE LA LEY N°26859, LEY ORGÁNICA DE ELECCIONES, RESPECTO AL RETIRO DE PROPAGANDA ELECTORAL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1485,24 +1485,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AutoresFlores Ancachi, Jorge Luis Soto Palacios, Wilson Vergara Mendoza, Elvis Hernán ver más...</t>
+          <t>AutoresElías Ávalos, José Luis Calle Lobatón, Digna Picón Quedo, Luis Raúl ver más...</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06509/2023-CR</t>
+          <t>Proyecto de Ley 06525/2023-CR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación27/11/2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CREACIÓN DE LA PROVINCIA DE DESAGUADERO UBICADO EN EL DEPARTAMENTO DE PUNO.</t>
+          <t>TítuloLEY QUE FORTALECE Y AMPLIA LA COBERTURA DE ESSALUD DENTRO DE LOS ALCANCES DEL DERECHO A LA SEGURIDAD SOCIAL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1517,24 +1517,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AutoresFlores Ancachi, Jorge Luis Doroteo Carbajo, Raúl Felipe Aragón Carreño, Luis Ángel ver más...</t>
+          <t>AutoresMedina Minaya, Esdras Ricardo Burgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy ver más...</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06508/2023-CR</t>
+          <t>Proyecto de Ley 06524/2023-CR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación27/11/2023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL LA APROBACIÓN COMO ACTIVO CRÍTICO NACIONAL DEL TERMINAL PORTUARIO MULTIPROPÓSITO DE CHANCAY</t>
+          <t>TítuloLEY QUE PRECISA LA FORMALIZACION DIGITAL EN SISTEMAS Y APLICACIONES QUE SE UTILICEN INTELIGENCIA ARTIFICIAL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1549,24 +1549,24 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AutoresCueto Aservi, José Ernesto Montoya Manrique, Jorge Carlos Herrera Medina, Noelia Rossvith ver más...</t>
+          <t>AutoresMedina Minaya, Esdras Ricardo Ugarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé ver más...</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06507/2023-CR</t>
+          <t>Proyecto de Ley 06523/2023-CR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación24/11/2023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TítuloLEY PARA LA SIMPLIFICACIÓN DEL PROCESO DE CREACIÓN Y OPERACIÓN DE ORGANIZACIONES SOCIALES DE BASE EN EL SERVICIO DE APOYO ALIMENTARIO</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL RECONOCER A LA CIUDAD DE ETEN COMO CIUDAD EUCARÍSTICA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1581,24 +1581,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>AutoresFlores Ancachi, Jorge Luis Doroteo Carbajo, Raúl Felipe Vergara Mendoza, Elvis Hernán ver más...</t>
+          <t>AutoresAnderson Ramírez, Carlos Antonio Portero López, Hilda Marleny Acuña Peralta, María Grimaneza ver más...</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06506/2023-CR</t>
+          <t>Proyecto de Ley 06522/2023-CR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación24/11/2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROMUEVE LA CREACIÓN DE UNA RED DE FARMACIAS POPULARES EN LAS FACULTADES DE FARMACIA Y BIOQUIMICA DE LAS UNIVERSIDADES NACIONALES</t>
+          <t>TítuloLEY DE RESTABLECIMIENTO, ACTUALIZACION Y NIVELACIÓN DE LA BONIFICACION MENSUAL DE LOS EX COMBATIENTES, SOBRE LA BASE DE LA REMUNERACIÓN MÍNIMA VITAL VIGENTE EN CADA EJERCICIO FISCAL, EN EL MARCO DE LA LEY 24053 Y SU MODIFICATORIA Y LA LEY 26511 Y SUS MODIFICATORIAS</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1613,24 +1613,24 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>AutoresKamiche Morante, Luis Roberto Bermejo Rojas, Guillermo Bazán Narro, Sigrid Tesoro ver más...</t>
+          <t>AutoresMontalvo Cubas, Segundo Toribio Portalatino Ávalos, Kelly Roxana Taipe Coronado, María Elizabeth ver más...</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06505/2023-CR</t>
+          <t>Proyecto de Ley 06521/2023-CR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación24/11/2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TítuloLEY DE PROTECCIÓN DE LA INTIMIDAD DE LA MUJER E INDEMNIDAD SEXUAL DE NIÑOS Y NIÑAS EN ESPACIOS PÚBLICOS</t>
+          <t>TítuloPROYECTO DE LEY QUE DICTA MEDIDAS CONTRA LA CORRUPCIÓN EN LOS ESTABLECIMIENTOS PENITENCIARIOS Y PROMUEVE ACCIONES PARA REDUCIR EL HACINAMIENTO</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1645,24 +1645,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AutoresMontoya Manrique, Jorge Carlos Cueto Aservi, José Ernesto Padilla Romero, Javier Rommel ver más...</t>
+          <t>AutoresYarrow Lumbreras, Norma Martina Cavero Alva, Alejandro Enrique Córdova Lobatón, María Jessica ver más...</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06504/2023-CR</t>
+          <t>Proyecto de Ley 06520/2023-CR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación24/11/2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA LA CREACIÓN DE LA UNIVERSIDAD NACIONAL INTERCULTURAL CHOPCCA</t>
+          <t>TítuloLEY QUE REGULA Y GARANTIZA EL SERVICIO DE RECOJO DE RESIDUOS GENERADOS EN LA ACTIVIDAD MARITIMA Y PROTEJE EL MEDIO AMBIENTE MARITIMO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1677,24 +1677,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AutoresPariona Sinche, Alfredo Quito Sarmiento, Bernardo Jaime Wong Pujada, Enrique ver más...</t>
+          <t>AutoresFlores Ancachi, Jorge Luis Vergara Mendoza, Elvis Hernán Aragón Carreño, Luis Ángel ver más...</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06503/2023-CR</t>
+          <t>Proyecto de Ley 06519/2023-CR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación24/11/2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA LA CREACIÓN DE LA UNIVERSIDAD NACIONAL TECNOLÓGICA NUEVO OCCORO</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CREACIÓN DE LA UNIVERSIDAD NACIONAL DE JAUJA EN EL DEPARTAMENTO DE JUNÍN</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1709,24 +1709,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AutoresPariona Sinche, Alfredo Quito Sarmiento, Bernardo Jaime Varas Meléndez, Elías Marcial ver más...</t>
+          <t>AutoresFlores Ancachi, Jorge Luis Aragón Carreño, Luis Ángel Soto Palacios, Wilson ver más...</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06502/2023-CR</t>
+          <t>Proyecto de Ley 06518/2023-CR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fecha de Presentación23/11/2023</t>
+          <t>Fecha de Presentación24/11/2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 31250, LEY DEL SISTEMA NACIONAL DE CIENCIA, TECNOLOGÍA E INNOVACIÓN (SINACTI)</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 27867, LEY ORGÁNICA DE GOBIERNOS REGIONALES CREANDO LA GERENCIA DE DESARROLLO DE LOS PUEBLOS INDÍGENAS U ORIGINARIOS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1741,14 +1741,14 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>AutoresMálaga Trillo, George Edward</t>
+          <t>AutoresTaipe Coronado, María Elizabeth Quispe Mamani, Wilson Rusbel Palacios Huamán, Margot ver más...</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06501/2023-CR</t>
+          <t>Proyecto de Ley 06517/2023-CR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 30220, LEY UNIVERSITARIA</t>
+          <t>TítuloLEY DE EFICIENCIA EN LA DESTRUCCIÓN DE DROGAS DECOMISADAS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1773,14 +1773,14 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>AutoresMálaga Trillo, George Edward</t>
+          <t>AutoresVergara Mendoza, Elvis Hernán Espinoza Vargas, Jhaec Darwin Portero López, Hilda Marleny ver más...</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06500/2023-CR</t>
+          <t>Proyecto de Ley 06516/2023-CR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE AUTORIZA LA CREACIÓN DEL PROGRAMA DE COMPLEMENTACIÓN ALIMENTARIA DE OLLAS COMUNES</t>
+          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CREACIÓN DE LA "UNIVERSIDAD NACIONAL TÉCNICA DE CARABAYLLO" EN EL DEPARTAMENTO DE LIMA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1805,14 +1805,14 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>AutoresAlcarraz Agüero, Yorel Kira Paredes Castro, Francis Jhasmina Luna Gálvez, José León ver más...</t>
+          <t>AutoresFlores Ancachi, Jorge Luis Vergara Mendoza, Elvis Hernán Aragón Carreño, Luis Ángel ver más...</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06499/2023-CR</t>
+          <t>Proyecto de Ley 06515/2023-CR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1822,12 +1822,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL RECONOCER A LA CIUDAD DE ETEN COMO CIUDAD EUCARÍSTICA</t>
+          <t>TítuloLEY PARA EL RECONOCIMIENTO, REVALORIZACIÓN, PROMOCIÓN Y PROTECCIÓN DEL GRAN PAJATÉN POR LA NACIÓN</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Estado ProcesalRetirado por su Autor</t>
+          <t>Estado ProcesalEN COMISIÓN</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1837,14 +1837,14 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>AutoresAnderson Ramírez, Carlos Antonio</t>
+          <t>AutoresFlores Ancachi, Jorge Luis Vergara Mendoza, Elvis Hernán Doroteo Carbajo, Raúl Felipe ver más...</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06498/2023-CR</t>
+          <t>Proyecto de Ley 06514/2023-CR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA DIVERSOS ARTÍCULOS DEL NUEVO CÓDIGO PROCESAL PENAL</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 30220, LEY UNIVERSITARIA PARA ESTABLECER EL DESARROLLO OBLIGATORIO DE LA INVESTIGACIÓN ARTÍSTICA, CIENTÍFICA Y TECNOLÓGICA DURANTE LOS ESTUDIOS DE PREGRADO Y POSGRADO</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AutoresCerrón Rojas, Waldemar José Portalatino Ávalos, Kelly Roxana Palacios Huamán, Margot ver más...</t>
+          <t>AutoresBazán Narro, Sigrid Tesoro Limachi Quispe, Nieves Esmeralda Kamiche Morante, Luis Roberto ver más...</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06497/2023-CG</t>
+          <t>Proyecto de Ley 06513/2023-CR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1886,29 +1886,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PRECISA EL ALCANCE Y REQUISITOS EN LAS CONTRATACIONES BAJO LA MODALIDAD ESTADO A ESTADO</t>
+          <t>TítuloLEY QUE PROMUEVE EL EFECTIVO DESARROLLO PRODUCTIVO, CRECIMIENTO Y FORMALIZACIÓN DE LA ACTIVIDAD ARTESANAL</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalRetirado por su Autor</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ProponenteContraloría General de la República</t>
+          <t>ProponenteCongreso</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Autores</t>
+          <t>AutoresMorante Figari, Jorge Alberto Aguinaga Recuenco, Alejandro Aurelio Infantes Castañeda, Mery Eliana ver más...</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06496/2023-CR</t>
+          <t>Proyecto de Ley 06512/2023-CR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 30220, LEY UNIVERSITARIA, A EFECTO DE INCORPORAR A LOS JEFES DE PRÁCTICA EN EL ESCALAFÓN DE LA DOCENCIA UNIVERSITARIA</t>
+          <t>TítuloLEY DE REFORMA CONSTITUCIONAL QUE MODIFICA LOS ARTÍCULOS 165 Y 166 DE LA CONSTITUCIÓN POLÍTICA DEL PERÚ Y AGREGA PRECISIONES RESPECTO AL SISTEMA DE VIGILANCIA DE FRONTERAS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1933,14 +1933,14 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AutoresAragón Carreño, Luis Ángel Espinoza Vargas, Jhaec Darwin Flores Ancachi, Jorge Luis ver más...</t>
+          <t>AutoresChiabra León, Roberto Enrique Acuña Peralta, María Grimaneza Salhuana Cavides, Eduardo ver más...</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06495/2023-CR</t>
+          <t>Proyecto de Ley 06511/2023-PE</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE AMPLIA LA VIGENCIA DE LA LEY 31480, LEY QUE AUTORIZA LA DISPOSICIÓN DE LA COMPENSACIÓN POR TIEMPO DE SERVICIO A FIN DE CUBRIR LAS NECESIDADES ECONÓMICAS CAUSADAS POR LA RESECIÓN ECONÓMICA</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY N° 29944, LEY DE REFORMA MAGISTERIAL, PARA GARANTIZAR LA NEUTRALIDAD EN EL DESEMPEÑO DE LA FUNCIÓN PÚBLICA DOCENTE</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1960,19 +1960,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ProponenteCongreso</t>
+          <t>ProponentePoder Ejecutivo</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AutoresCoayla Juárez, Jorge Samuel Bellido Ugarte, Guido Varas Meléndez, Elías Marcial ver más...</t>
+          <t>Autores</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06494/2023-CR</t>
+          <t>Proyecto de Ley 06510/2023-CR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FACULTA EL RETIRO EXTRAORDINARIO DE LOS FONDOS PRIVADOS DE PENSIONES COMO MEDIDA PARA REDUCIR EL IMPACTO DE LA RECESIÓN ECONÓMICA EN EL AÑO 2023</t>
+          <t>TítuloLEY PARA LA PROMOCIÓN DE LA FORESTACIÓN URBANA Y CUIDADO AMBIENTAL EN ASENTAMIENTOS HUMANOS CON INCENTIVOS EN AUTOAVALÚOS</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1997,24 +1997,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>AutoresLópez Morales, Jeny Luz Zeta Chunga, Cruz Maria Ventura Ángel, Héctor José ver más...</t>
+          <t>AutoresFlores Ancachi, Jorge Luis Soto Palacios, Wilson Vergara Mendoza, Elvis Hernán ver más...</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06493/2023-CR</t>
+          <t>Proyecto de Ley 06509/2023-CR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TítuloLEY DE PROMOCIÓN Y FORTALECIMIENTO DE ALIANZAS POLÍTICAS PARA EL FORTALECIMIENTO DE LA DEMOCRACIA REPRESENTATIVA DEL PERÚ</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CREACIÓN DE LA PROVINCIA DE DESAGUADERO UBICADO EN EL DEPARTAMENTO DE PUNO.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2029,24 +2029,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AutoresParedes Piqué, Susel Ana María Luque Ibarra, Ruth Limachi Quispe, Nieves Esmeralda ver más...</t>
+          <t>AutoresFlores Ancachi, Jorge Luis Doroteo Carbajo, Raúl Felipe Aragón Carreño, Luis Ángel ver más...</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06492/2023-CR</t>
+          <t>Proyecto de Ley 06508/2023-CR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fecha de Presentación22/11/2023</t>
+          <t>Fecha de Presentación23/11/2023</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Título"LEY QUE AUTORIZA, POR ÚNICA VEZ Y DE MANERA EXCEPCIONAL, EL NOMBRAMIENTO A PERSONAL CAS DEL MINISTERIO DE SALUD, QUE FUE RETIRADO DEL REGISTRO EN EL AIRHSP"</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL LA APROBACIÓN COMO ACTIVO CRÍTICO NACIONAL DEL TERMINAL PORTUARIO MULTIPROPÓSITO DE CHANCAY</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>AutoresGarcía Correa, Idelso Manuel Julón Irigoín, Elva Edhit Soto Reyes, Alejandro ver más...</t>
+          <t>AutoresCueto Aservi, José Ernesto Montoya Manrique, Jorge Carlos Herrera Medina, Noelia Rossvith ver más...</t>
         </is>
       </c>
     </row>
